--- a/程序用_正式版_对照版/Monster.xlsx
+++ b/程序用_正式版_对照版/Monster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F6B284-ECEB-44FB-BBBD-F1F016D03D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4385987F-74DA-41AB-BD8F-DA34E3A0ACF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1185" windowWidth="36480" windowHeight="19665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="990" windowWidth="32055" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -932,7 +932,7 @@
   <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2439,7 +2439,7 @@
         <v>2.5</v>
       </c>
       <c r="M37" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">

--- a/程序用_正式版_对照版/Monster.xlsx
+++ b/程序用_正式版_对照版/Monster.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4385987F-74DA-41AB-BD8F-DA34E3A0ACF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="990" windowWidth="32055" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -21,20 +15,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>86176</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>86176:</t>
@@ -43,7 +36,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,14 +73,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I4" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -97,7 +88,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -118,13 +108,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +122,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -142,7 +131,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -150,14 +138,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -166,7 +153,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -174,14 +160,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="E2" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Davy:</t>
@@ -190,7 +175,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -430,8 +414,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -443,7 +433,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -452,7 +441,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -460,7 +448,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -469,7 +456,43 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -477,21 +500,124 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -499,33 +625,10 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,8 +647,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -594,15 +871,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -613,37 +1096,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="13" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="13" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -653,19 +1136,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输入" xfId="1" builtinId="20"/>
-    <cellStyle name="注释" xfId="2" builtinId="10"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -923,19 +1448,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="29.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -949,7 +1474,7 @@
     <col min="13" max="13" width="14.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1048,7 +1573,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="7">
         <v>0</v>
       </c>
@@ -1130,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -1171,7 +1696,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -1209,10 +1734,10 @@
         <v>0.5</v>
       </c>
       <c r="M7" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="7">
         <v>3</v>
       </c>
@@ -1250,10 +1775,10 @@
         <v>0.5</v>
       </c>
       <c r="M8" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -1294,7 +1819,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -1335,7 +1860,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -1376,7 +1901,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="7">
         <v>7</v>
       </c>
@@ -1414,10 +1939,10 @@
         <v>0.5</v>
       </c>
       <c r="M12" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="7">
         <v>8</v>
       </c>
@@ -1455,10 +1980,10 @@
         <v>0.5</v>
       </c>
       <c r="M13" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="7">
         <v>9</v>
       </c>
@@ -1499,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="7">
         <v>10</v>
       </c>
@@ -1540,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="7">
         <v>11</v>
       </c>
@@ -1581,7 +2106,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="7">
         <v>12</v>
       </c>
@@ -1622,7 +2147,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="7">
         <v>13</v>
       </c>
@@ -1663,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="7">
         <v>14</v>
       </c>
@@ -1704,7 +2229,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="7">
         <v>15</v>
       </c>
@@ -1745,7 +2270,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="7">
         <v>16</v>
       </c>
@@ -1786,7 +2311,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="7">
         <v>17</v>
       </c>
@@ -1824,10 +2349,10 @@
         <v>1</v>
       </c>
       <c r="M22" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="7">
         <v>18</v>
       </c>
@@ -1865,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="7">
         <v>19</v>
       </c>
@@ -1909,7 +2434,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="7">
         <v>20</v>
       </c>
@@ -1950,7 +2475,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="7">
         <v>21</v>
       </c>
@@ -1991,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="7">
         <v>22</v>
       </c>
@@ -2032,7 +2557,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="7">
         <v>23</v>
       </c>
@@ -2073,7 +2598,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="7">
         <v>24</v>
       </c>
@@ -2111,10 +2636,10 @@
         <v>1</v>
       </c>
       <c r="M29" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="7">
         <v>25</v>
       </c>
@@ -2155,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="7">
         <v>26</v>
       </c>
@@ -2193,10 +2718,10 @@
         <v>1.5</v>
       </c>
       <c r="M31" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="7">
         <v>27</v>
       </c>
@@ -2237,7 +2762,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="7">
         <v>28</v>
       </c>
@@ -2278,7 +2803,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="7">
         <v>29</v>
       </c>
@@ -2319,7 +2844,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="7">
         <v>30</v>
       </c>
@@ -2360,7 +2885,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="7">
         <v>31</v>
       </c>
@@ -2401,7 +2926,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="7">
         <v>32</v>
       </c>
@@ -2442,516 +2967,520 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1">
       <c r="A198"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="4:5">
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/程序用_正式版_对照版/Monster.xlsx
+++ b/程序用_正式版_对照版/Monster.xlsx
@@ -416,10 +416,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -460,8 +460,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,68 +491,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,14 +514,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,41 +605,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -617,6 +612,11 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -649,7 +649,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,13 +715,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,115 +805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,25 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,17 +890,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,11 +914,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,10 +947,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,133 +959,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1456,8 +1456,8 @@
   <sheetPr/>
   <dimension ref="A1:M198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75"/>
@@ -2677,7 +2677,7 @@
         <v>1.5</v>
       </c>
       <c r="M30" s="13">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2759,7 +2759,7 @@
         <v>1.5</v>
       </c>
       <c r="M32" s="13">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2800,7 +2800,7 @@
         <v>1.5</v>
       </c>
       <c r="M33" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2841,7 +2841,7 @@
         <v>1.5</v>
       </c>
       <c r="M34" s="13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2882,7 +2882,7 @@
         <v>1.5</v>
       </c>
       <c r="M35" s="13">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="36" spans="1:13">

--- a/程序用_正式版_对照版/Monster.xlsx
+++ b/程序用_正式版_对照版/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12345"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -363,13 +363,13 @@
     <t>E30001</t>
   </si>
   <si>
-    <t>3-10,2-7</t>
+    <t>3-10,1-7</t>
   </si>
   <si>
     <t>E30002</t>
   </si>
   <si>
-    <t>1-7,5-15</t>
+    <t>1-7,3-15</t>
   </si>
   <si>
     <t>E30003</t>
@@ -416,10 +416,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -461,10 +461,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,7 +491,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,17 +536,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,22 +569,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,56 +597,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,17 +611,17 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -649,13 +649,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,139 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,6 +872,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -892,9 +907,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,28 +931,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,10 +947,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,133 +959,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1457,7 +1457,7 @@
   <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75"/>
@@ -1666,7 +1666,7 @@
         <v>1.5</v>
       </c>
       <c r="D6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
@@ -1704,13 +1704,13 @@
         <v>32</v>
       </c>
       <c r="C7" s="8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D7" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="8">
         <v>0.5</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.6</v>
       </c>
       <c r="F7" s="8">
         <v>95</v>
@@ -1745,13 +1745,13 @@
         <v>33</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D8" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="8">
         <v>0.5</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.6</v>
       </c>
       <c r="F8" s="8">
         <v>95</v>
@@ -1786,22 +1786,22 @@
         <v>34</v>
       </c>
       <c r="C9" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
         <v>3</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2</v>
       </c>
       <c r="F9" s="8">
         <v>70</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>30</v>
@@ -1827,19 +1827,19 @@
         <v>35</v>
       </c>
       <c r="C10" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E10" s="8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F10" s="8">
         <v>70</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -1868,19 +1868,19 @@
         <v>36</v>
       </c>
       <c r="C11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E11" s="8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F11" s="8">
         <v>70</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>1.5</v>
       </c>
       <c r="D12" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
@@ -1953,7 +1953,7 @@
         <v>1.5</v>
       </c>
       <c r="D13" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
@@ -1991,13 +1991,13 @@
         <v>39</v>
       </c>
       <c r="C14" s="8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D14" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="8">
         <v>0.5</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.6</v>
       </c>
       <c r="F14" s="8">
         <v>95</v>
@@ -2032,13 +2032,13 @@
         <v>40</v>
       </c>
       <c r="C15" s="8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D15" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="8">
         <v>0.5</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.6</v>
       </c>
       <c r="F15" s="8">
         <v>95</v>
@@ -2076,10 +2076,10 @@
         <v>0.5</v>
       </c>
       <c r="D16" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F16" s="8">
         <v>50</v>
@@ -2117,10 +2117,10 @@
         <v>0.5</v>
       </c>
       <c r="D17" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F17" s="8">
         <v>50</v>
@@ -2199,7 +2199,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="8">
         <v>8</v>
@@ -2211,7 +2211,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="8">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>30</v>
@@ -2240,10 +2240,10 @@
         <v>0.4</v>
       </c>
       <c r="D20" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="8">
         <v>70</v>
@@ -2281,10 +2281,10 @@
         <v>0.4</v>
       </c>
       <c r="D21" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="8">
         <v>70</v>
@@ -2319,10 +2319,10 @@
         <v>48</v>
       </c>
       <c r="C22" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="8">
         <v>2</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
       </c>
       <c r="E22" s="8">
         <v>3</v>
@@ -2360,10 +2360,10 @@
         <v>49</v>
       </c>
       <c r="C23" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="8">
         <v>2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
       </c>
       <c r="E23" s="8">
         <v>3</v>
@@ -2445,7 +2445,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E25" s="8">
         <v>10</v>
@@ -2454,10 +2454,10 @@
         <v>30</v>
       </c>
       <c r="G25" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H25" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>30</v>
@@ -2483,7 +2483,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D26" s="8">
         <v>99</v>
@@ -2530,7 +2530,7 @@
         <v>99</v>
       </c>
       <c r="E27" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="8">
         <v>40</v>
@@ -2571,16 +2571,16 @@
         <v>99</v>
       </c>
       <c r="E28" s="8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F28" s="8">
         <v>50</v>
       </c>
       <c r="G28" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H28" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>55</v>
@@ -2653,13 +2653,13 @@
         <v>4</v>
       </c>
       <c r="E30" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="8">
         <v>60</v>
       </c>
       <c r="G30" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H30" s="8">
         <v>0</v>
@@ -2691,10 +2691,10 @@
         <v>2.5</v>
       </c>
       <c r="D31" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F31" s="8">
         <v>70</v>
@@ -2735,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -2782,10 +2782,10 @@
         <v>110</v>
       </c>
       <c r="G33" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H33" s="8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>64</v>
@@ -2817,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F34" s="8">
         <v>110</v>

--- a/程序用_正式版_对照版/Monster.xlsx
+++ b/程序用_正式版_对照版/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
     <t>E30006</t>
   </si>
   <si>
-    <t>5-12,8-8</t>
+    <t>5-12,8-14</t>
   </si>
   <si>
     <t>E40001</t>
@@ -417,9 +417,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -460,14 +460,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -475,11 +467,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,39 +488,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,6 +519,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -559,17 +550,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,8 +566,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,13 +599,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,13 +615,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -649,127 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +667,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +727,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,12 +818,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,39 +872,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -934,6 +901,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -947,10 +947,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,133 +959,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1457,7 +1457,7 @@
   <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75"/>
@@ -1663,7 +1663,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="8">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
@@ -1704,7 +1704,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="8">
         <v>0.8</v>
@@ -1745,7 +1745,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="8">
         <v>0.8</v>
@@ -1786,7 +1786,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8">
         <v>2</v>
@@ -1827,7 +1827,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D10" s="8">
         <v>1.5</v>
@@ -1868,7 +1868,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D11" s="8">
         <v>1.5</v>
@@ -1909,7 +1909,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -1950,7 +1950,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="8">
         <v>0.8</v>
@@ -2032,7 +2032,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="8">
         <v>0.8</v>
@@ -2196,22 +2196,22 @@
         <v>44</v>
       </c>
       <c r="C19" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="8">
         <v>5</v>
       </c>
       <c r="E19" s="8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F19" s="8">
         <v>20</v>
       </c>
       <c r="G19" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H19" s="8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>30</v>
@@ -2237,13 +2237,13 @@
         <v>45</v>
       </c>
       <c r="C20" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D20" s="8">
         <v>3</v>
       </c>
       <c r="E20" s="8">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="F20" s="8">
         <v>70</v>
@@ -2278,13 +2278,13 @@
         <v>47</v>
       </c>
       <c r="C21" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D21" s="8">
         <v>3</v>
       </c>
       <c r="E21" s="8">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="F21" s="8">
         <v>70</v>
@@ -2319,13 +2319,13 @@
         <v>48</v>
       </c>
       <c r="C22" s="8">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="D22" s="8">
+        <v>3</v>
+      </c>
+      <c r="E22" s="8">
         <v>2</v>
-      </c>
-      <c r="E22" s="8">
-        <v>3</v>
       </c>
       <c r="F22" s="8">
         <v>80</v>
@@ -2360,13 +2360,13 @@
         <v>49</v>
       </c>
       <c r="C23" s="8">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="D23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="8">
         <v>2</v>
-      </c>
-      <c r="E23" s="8">
-        <v>3</v>
       </c>
       <c r="F23" s="8">
         <v>80</v>
@@ -2442,13 +2442,13 @@
         <v>51</v>
       </c>
       <c r="C25" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="8">
         <v>3</v>
       </c>
       <c r="E25" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F25" s="8">
         <v>30</v>
@@ -2489,7 +2489,7 @@
         <v>99</v>
       </c>
       <c r="E26" s="8">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="F26" s="8">
         <v>90</v>
@@ -2571,7 +2571,7 @@
         <v>99</v>
       </c>
       <c r="E28" s="8">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F28" s="8">
         <v>50</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="8">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>55</v>
@@ -2606,13 +2606,13 @@
         <v>56</v>
       </c>
       <c r="C29" s="8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
       <c r="E29" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F29" s="8">
         <v>80</v>
@@ -2653,7 +2653,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F30" s="8">
         <v>60</v>
@@ -2688,13 +2688,13 @@
         <v>59</v>
       </c>
       <c r="C31" s="8">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D31" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="8">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F31" s="8">
         <v>70</v>
@@ -2729,13 +2729,13 @@
         <v>61</v>
       </c>
       <c r="C32" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="8">
         <v>2</v>
       </c>
       <c r="E32" s="8">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>63</v>
       </c>
       <c r="C33" s="8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D33" s="8">
         <v>4</v>
       </c>
       <c r="E33" s="8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F33" s="8">
         <v>110</v>
@@ -2811,13 +2811,13 @@
         <v>65</v>
       </c>
       <c r="C34" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="8">
         <v>3</v>
       </c>
       <c r="E34" s="8">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F34" s="8">
         <v>110</v>
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="8">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F35" s="8">
         <v>60</v>
@@ -2893,22 +2893,22 @@
         <v>69</v>
       </c>
       <c r="C36" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D36" s="8">
         <v>99</v>
       </c>
       <c r="E36" s="8">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F36" s="8">
         <v>60</v>
       </c>
       <c r="G36" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H36" s="8">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>70</v>
@@ -2934,19 +2934,19 @@
         <v>71</v>
       </c>
       <c r="C37" s="8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D37" s="8">
         <v>4</v>
       </c>
       <c r="E37" s="8">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F37" s="8">
         <v>70</v>
       </c>
       <c r="G37" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H37" s="8">
         <v>0</v>
